--- a/src/data/xlsx/list_PSEUDO_COMPANY_KZ_ALL.xlsx
+++ b/src/data/xlsx/list_PSEUDO_COMPANY_KZ_ALL.xlsx
@@ -66,7 +66,7 @@
 Дата начала преступной деятельности</t>
   </si>
   <si>
-    <t>2018.06.21 жылғы жағдай бойынша жалған кәсіпорын деп танылған салық төлеушілер туралы ақпарат / Информация о налогоплательщиках, признанных лжепредприятиями по состоянию на 2018.06.21 года</t>
+    <t>2018.06.24 жылғы жағдай бойынша жалған кәсіпорын деп танылған салық төлеушілер туралы ақпарат / Информация о налогоплательщиках, признанных лжепредприятиями по состоянию на 2018.06.24 года</t>
   </si>
   <si>
     <t>000140013420</t>
